--- a/source/comment_robust_lift.xlsx
+++ b/source/comment_robust_lift.xlsx
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.142857142857143</v>
+        <v>0.6818183233204804</v>
       </c>
       <c r="C2">
-        <v>1.805970149253732</v>
+        <v>0.05665281535375592</v>
       </c>
       <c r="D2">
-        <v>0.6359882005899706</v>
+        <v>0.01408049185053302</v>
       </c>
       <c r="E2">
-        <v>1.798540145985401</v>
+        <v>0.08709876081152428</v>
       </c>
       <c r="F2">
-        <v>0.7333333333333334</v>
+        <v>0.02443310518735775</v>
       </c>
       <c r="G2">
-        <v>1.029787234042553</v>
+        <v>0.02842038582855812</v>
       </c>
       <c r="H2">
-        <v>0.2869565217391305</v>
+        <v>0.0275272418391182</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.645772594752187</v>
+        <v>0.1093137275959282</v>
       </c>
       <c r="C3">
-        <v>2.462686567164179</v>
+        <v>0.6003199402271145</v>
       </c>
       <c r="D3">
-        <v>0.7449882607910421</v>
+        <v>0.04017148175341958</v>
       </c>
       <c r="E3">
-        <v>1.941754804111425</v>
+        <v>0.1186854971563536</v>
       </c>
       <c r="F3">
-        <v>0.7646040067403106</v>
+        <v>0.02653252870320837</v>
       </c>
       <c r="G3">
-        <v>1.173198002605297</v>
+        <v>0.1373414687905506</v>
       </c>
       <c r="H3">
-        <v>0.292812777284827</v>
+        <v>0.006409892033646331</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.961538461538462</v>
+        <v>0.06891555316006451</v>
       </c>
       <c r="C4">
-        <v>2.36796785304248</v>
+        <v>0.08675559334352552</v>
       </c>
       <c r="D4">
-        <v>1.460176991150443</v>
+        <v>0.3215320023236893</v>
       </c>
       <c r="E4">
-        <v>1.968697361033128</v>
+        <v>0.006380471615462601</v>
       </c>
       <c r="F4">
-        <v>0.9461009174311926</v>
+        <v>0.01912260863923187</v>
       </c>
       <c r="G4">
-        <v>1.36712356792144</v>
+        <v>0.04658132485989665</v>
       </c>
       <c r="H4">
-        <v>0.4368729096989967</v>
+        <v>0.007861187909428483</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.735751295336788</v>
+        <v>0.1836117811953041</v>
       </c>
       <c r="C5">
-        <v>2.01608537622767</v>
+        <v>0.1277042265496641</v>
       </c>
       <c r="D5">
-        <v>0.6430831308175524</v>
+        <v>0.004721019911360242</v>
       </c>
       <c r="E5">
-        <v>2.408759124087591</v>
+        <v>0.5895695689472922</v>
       </c>
       <c r="F5">
-        <v>0.8000190141179826</v>
+        <v>0.03254757644069518</v>
       </c>
       <c r="G5">
-        <v>1.209624076728034</v>
+        <v>0.1182874885040094</v>
       </c>
       <c r="H5">
-        <v>0.2725839152962379</v>
+        <v>0.004880509546777304</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.058673469387755</v>
+        <v>0.09456646276592556</v>
       </c>
       <c r="C6">
-        <v>2.176839019189765</v>
+        <v>0.0567344175757855</v>
       </c>
       <c r="D6">
-        <v>0.8474241466498103</v>
+        <v>0.008488383298512564</v>
       </c>
       <c r="E6">
-        <v>2.193691345151199</v>
+        <v>0.04670267411487646</v>
       </c>
       <c r="F6">
-        <v>1.513761467889908</v>
+        <v>0.3409331625853552</v>
       </c>
       <c r="G6">
-        <v>1.394851823708207</v>
+        <v>0.02880748295515846</v>
       </c>
       <c r="H6">
-        <v>0.4270186335403727</v>
+        <v>0.001539201582499187</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.921529175050302</v>
+        <v>0.1121744995520692</v>
       </c>
       <c r="C7">
-        <v>2.2719150725247</v>
+        <v>0.2267991083037001</v>
       </c>
       <c r="D7">
-        <v>0.8329178611491961</v>
+        <v>0.02207898169933141</v>
       </c>
       <c r="E7">
-        <v>2.256091292279223</v>
+        <v>0.1731912964383407</v>
       </c>
       <c r="F7">
-        <v>0.9487659904380411</v>
+        <v>0.01594037564020027</v>
       </c>
       <c r="G7">
-        <v>1.75531914893617</v>
+        <v>0.4318422677725285</v>
       </c>
       <c r="H7">
-        <v>0.3368034292712799</v>
+        <v>0.001539201582499187</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.142857142857143</v>
+        <v>0.1473485574643377</v>
       </c>
       <c r="C8">
-        <v>2.189054726368159</v>
+        <v>0.003030307420284815</v>
       </c>
       <c r="D8">
-        <v>1.027531956735497</v>
+        <v>0.004419192336523826</v>
       </c>
       <c r="E8">
-        <v>1.962692619626926</v>
+        <v>0.003030303840104539</v>
       </c>
       <c r="F8">
-        <v>1.121304791029562</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1.300236406619385</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1.195652173913044</v>
+        <v>0.1636363687508983</v>
       </c>
     </row>
   </sheetData>

--- a/source/comment_robust_lift.xlsx
+++ b/source/comment_robust_lift.xlsx
@@ -19,22 +19,22 @@
     <t>เมจิ</t>
   </si>
   <si>
-    <t>ไทยเดนมาร์ค</t>
+    <t>ดัชมิลล์</t>
+  </si>
+  <si>
+    <t>โฟร์โมสต์</t>
   </si>
   <si>
     <t>แดรี่โฮม</t>
   </si>
   <si>
-    <t>โฟร์โมสต์</t>
-  </si>
-  <si>
     <t>โชคชัย</t>
   </si>
   <si>
-    <t>หนองโพ</t>
+    <t>เอ็มมิลค์</t>
   </si>
   <si>
-    <t>เอ็มมิลค์</t>
+    <t>ไทยเดนมาร์ค</t>
   </si>
 </sst>
 </file>
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6818183233204804</v>
+        <v>1.000000209045543</v>
       </c>
       <c r="C2">
-        <v>0.05665281535375592</v>
+        <v>0.1419166238578951</v>
       </c>
       <c r="D2">
-        <v>0.01408049185053302</v>
+        <v>0.1284276216138664</v>
       </c>
       <c r="E2">
-        <v>0.08709876081152428</v>
+        <v>0.02090037785953247</v>
       </c>
       <c r="F2">
-        <v>0.02443310518735775</v>
+        <v>0.03624393747293989</v>
       </c>
       <c r="G2">
-        <v>0.02842038582855812</v>
+        <v>0.04019464516331419</v>
       </c>
       <c r="H2">
-        <v>0.0275272418391182</v>
+        <v>0.08465189002823315</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1093137275959282</v>
+        <v>0.4013480499683105</v>
       </c>
       <c r="C3">
-        <v>0.6003199402271145</v>
+        <v>1.000000086589957</v>
       </c>
       <c r="D3">
-        <v>0.04017148175341958</v>
+        <v>0.2484990783612581</v>
       </c>
       <c r="E3">
-        <v>0.1186854971563536</v>
+        <v>0.03021731539538432</v>
       </c>
       <c r="F3">
-        <v>0.02653252870320837</v>
+        <v>0.05606782231709966</v>
       </c>
       <c r="G3">
-        <v>0.1373414687905506</v>
+        <v>0.0004655493547788502</v>
       </c>
       <c r="H3">
-        <v>0.006409892033646331</v>
+        <v>0.2465532677682311</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.06891555316006451</v>
+        <v>0.3059663959429541</v>
       </c>
       <c r="C4">
-        <v>0.08675559334352552</v>
+        <v>0.2058187705756978</v>
       </c>
       <c r="D4">
-        <v>0.3215320023236893</v>
+        <v>1.000000111649829</v>
       </c>
       <c r="E4">
-        <v>0.006380471615462601</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.01912260863923187</v>
+        <v>0.04733383327154912</v>
       </c>
       <c r="G4">
-        <v>0.04658132485989665</v>
+        <v>0.0002712968025135567</v>
       </c>
       <c r="H4">
-        <v>0.007861187909428483</v>
+        <v>0.2123819905238135</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1836117811953041</v>
+        <v>0.200110258242085</v>
       </c>
       <c r="C5">
-        <v>0.1277042265496641</v>
+        <v>0.1100578689452874</v>
       </c>
       <c r="D5">
-        <v>0.004721019911360242</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5895695689472922</v>
+        <v>1.000000049964139</v>
       </c>
       <c r="F5">
-        <v>0.03254757644069518</v>
+        <v>0.04242766927717859</v>
       </c>
       <c r="G5">
-        <v>0.1182874885040094</v>
+        <v>0.004653679781035629</v>
       </c>
       <c r="H5">
-        <v>0.004880509546777304</v>
+        <v>0.258559915174055</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09456646276592556</v>
+        <v>0.2744380209021913</v>
       </c>
       <c r="C6">
-        <v>0.0567344175757855</v>
+        <v>0.1685404775372684</v>
       </c>
       <c r="D6">
-        <v>0.008488383298512564</v>
+        <v>0.1318933268644646</v>
       </c>
       <c r="E6">
-        <v>0.04670267411487646</v>
+        <v>0.02140026531282642</v>
       </c>
       <c r="F6">
-        <v>0.3409331625853552</v>
+        <v>1.000000065097186</v>
       </c>
       <c r="G6">
-        <v>0.02880748295515846</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.001539201582499187</v>
+        <v>0.1661674522875928</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1121744995520692</v>
+        <v>0.900463406726508</v>
       </c>
       <c r="C7">
-        <v>0.2267991083037001</v>
+        <v>0.01851852164406789</v>
       </c>
       <c r="D7">
-        <v>0.02207898169933141</v>
+        <v>0.01851852346730552</v>
       </c>
       <c r="E7">
-        <v>0.1731912964383407</v>
+        <v>0.02700617538986783</v>
       </c>
       <c r="F7">
-        <v>0.01594037564020027</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4318422677725285</v>
+        <v>1.00000003125549</v>
       </c>
       <c r="H7">
-        <v>0.001539201582499187</v>
+        <v>0.01851854534618498</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1473485574643377</v>
+        <v>0.1732481183973029</v>
       </c>
       <c r="C8">
-        <v>0.003030307420284815</v>
+        <v>0.1846741027347883</v>
       </c>
       <c r="D8">
-        <v>0.004419192336523826</v>
+        <v>0.1891403985996745</v>
       </c>
       <c r="E8">
-        <v>0.003030303840104539</v>
+        <v>0.05684595126143622</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.03419235098456597</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>4.928293401335419e-05</v>
       </c>
       <c r="H8">
-        <v>0.1636363687508983</v>
+        <v>1.000000132582077</v>
       </c>
     </row>
   </sheetData>

--- a/source/comment_robust_lift.xlsx
+++ b/source/comment_robust_lift.xlsx
@@ -19,22 +19,22 @@
     <t>เมจิ</t>
   </si>
   <si>
-    <t>ดัชมิลล์</t>
+    <t>ไทยเดนมาร์ค</t>
+  </si>
+  <si>
+    <t>แดรี่โฮม</t>
   </si>
   <si>
     <t>โฟร์โมสต์</t>
   </si>
   <si>
-    <t>แดรี่โฮม</t>
-  </si>
-  <si>
     <t>โชคชัย</t>
   </si>
   <si>
-    <t>เอ็มมิลค์</t>
+    <t>หนองโพ</t>
   </si>
   <si>
-    <t>ไทยเดนมาร์ค</t>
+    <t>เอ็มมิลค์</t>
   </si>
 </sst>
 </file>
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.000000209045543</v>
+        <v>0.6818183233204804</v>
       </c>
       <c r="C2">
-        <v>0.1419166238578951</v>
+        <v>0.05665281535375592</v>
       </c>
       <c r="D2">
-        <v>0.1284276216138664</v>
+        <v>0.01408049185053302</v>
       </c>
       <c r="E2">
-        <v>0.02090037785953247</v>
+        <v>0.08709876081152428</v>
       </c>
       <c r="F2">
-        <v>0.03624393747293989</v>
+        <v>0.02443310518735775</v>
       </c>
       <c r="G2">
-        <v>0.04019464516331419</v>
+        <v>0.02842038582855812</v>
       </c>
       <c r="H2">
-        <v>0.08465189002823315</v>
+        <v>0.0275272418391182</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4013480499683105</v>
+        <v>0.1093137275959282</v>
       </c>
       <c r="C3">
-        <v>1.000000086589957</v>
+        <v>0.6003199402271145</v>
       </c>
       <c r="D3">
-        <v>0.2484990783612581</v>
+        <v>0.04017148175341958</v>
       </c>
       <c r="E3">
-        <v>0.03021731539538432</v>
+        <v>0.1186854971563536</v>
       </c>
       <c r="F3">
-        <v>0.05606782231709966</v>
+        <v>0.02653252870320837</v>
       </c>
       <c r="G3">
-        <v>0.0004655493547788502</v>
+        <v>0.1373414687905506</v>
       </c>
       <c r="H3">
-        <v>0.2465532677682311</v>
+        <v>0.006409892033646331</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3059663959429541</v>
+        <v>0.06891555316006451</v>
       </c>
       <c r="C4">
-        <v>0.2058187705756978</v>
+        <v>0.08675559334352552</v>
       </c>
       <c r="D4">
-        <v>1.000000111649829</v>
+        <v>0.3215320023236893</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.006380471615462601</v>
       </c>
       <c r="F4">
-        <v>0.04733383327154912</v>
+        <v>0.01912260863923187</v>
       </c>
       <c r="G4">
-        <v>0.0002712968025135567</v>
+        <v>0.04658132485989665</v>
       </c>
       <c r="H4">
-        <v>0.2123819905238135</v>
+        <v>0.007861187909428483</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.200110258242085</v>
+        <v>0.1836117811953041</v>
       </c>
       <c r="C5">
-        <v>0.1100578689452874</v>
+        <v>0.1277042265496641</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.004721019911360242</v>
       </c>
       <c r="E5">
-        <v>1.000000049964139</v>
+        <v>0.5895695689472922</v>
       </c>
       <c r="F5">
-        <v>0.04242766927717859</v>
+        <v>0.03254757644069518</v>
       </c>
       <c r="G5">
-        <v>0.004653679781035629</v>
+        <v>0.1182874885040094</v>
       </c>
       <c r="H5">
-        <v>0.258559915174055</v>
+        <v>0.004880509546777304</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2744380209021913</v>
+        <v>0.09456646276592556</v>
       </c>
       <c r="C6">
-        <v>0.1685404775372684</v>
+        <v>0.0567344175757855</v>
       </c>
       <c r="D6">
-        <v>0.1318933268644646</v>
+        <v>0.008488383298512564</v>
       </c>
       <c r="E6">
-        <v>0.02140026531282642</v>
+        <v>0.04670267411487646</v>
       </c>
       <c r="F6">
-        <v>1.000000065097186</v>
+        <v>0.3409331625853552</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.02880748295515846</v>
       </c>
       <c r="H6">
-        <v>0.1661674522875928</v>
+        <v>0.001539201582499187</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.900463406726508</v>
+        <v>0.1121744995520692</v>
       </c>
       <c r="C7">
-        <v>0.01851852164406789</v>
+        <v>0.2267991083037001</v>
       </c>
       <c r="D7">
-        <v>0.01851852346730552</v>
+        <v>0.02207898169933141</v>
       </c>
       <c r="E7">
-        <v>0.02700617538986783</v>
+        <v>0.1731912964383407</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.01594037564020027</v>
       </c>
       <c r="G7">
-        <v>1.00000003125549</v>
+        <v>0.4318422677725285</v>
       </c>
       <c r="H7">
-        <v>0.01851854534618498</v>
+        <v>0.001539201582499187</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1732481183973029</v>
+        <v>0.1473485574643377</v>
       </c>
       <c r="C8">
-        <v>0.1846741027347883</v>
+        <v>0.003030307420284815</v>
       </c>
       <c r="D8">
-        <v>0.1891403985996745</v>
+        <v>0.004419192336523826</v>
       </c>
       <c r="E8">
-        <v>0.05684595126143622</v>
+        <v>0.003030303840104539</v>
       </c>
       <c r="F8">
-        <v>0.03419235098456597</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>4.928293401335419e-05</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1.000000132582077</v>
+        <v>0.1636363687508983</v>
       </c>
     </row>
   </sheetData>

--- a/source/comment_robust_lift.xlsx
+++ b/source/comment_robust_lift.xlsx
@@ -16,25 +16,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
-    <t>เมจิ</t>
+    <t>ซีพีเมจิ</t>
   </si>
   <si>
-    <t>ไทยเดนมาร์ค</t>
+    <t>ดัชมิลล์</t>
+  </si>
+  <si>
+    <t>โฟร์โมสต์</t>
   </si>
   <si>
     <t>แดรี่โฮม</t>
   </si>
   <si>
-    <t>โฟร์โมสต์</t>
-  </si>
-  <si>
     <t>โชคชัย</t>
   </si>
   <si>
-    <t>หนองโพ</t>
+    <t>เอ็มมิลค์</t>
   </si>
   <si>
-    <t>เอ็มมิลค์</t>
+    <t>ไทยเดนมาร์ค</t>
   </si>
 </sst>
 </file>
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6818183233204804</v>
+        <v>1.000000087388345</v>
       </c>
       <c r="C2">
-        <v>0.05665281535375592</v>
+        <v>0.2238334150015619</v>
       </c>
       <c r="D2">
-        <v>0.01408049185053302</v>
+        <v>0.1463284476906343</v>
       </c>
       <c r="E2">
-        <v>0.08709876081152428</v>
+        <v>0.01089678118076984</v>
       </c>
       <c r="F2">
-        <v>0.02443310518735775</v>
+        <v>0.0358922899636897</v>
       </c>
       <c r="G2">
-        <v>0.02842038582855812</v>
+        <v>0.06470466980797805</v>
       </c>
       <c r="H2">
-        <v>0.0275272418391182</v>
+        <v>0.1030708987380175</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1093137275959282</v>
+        <v>0.3866926708843421</v>
       </c>
       <c r="C3">
-        <v>0.6003199402271145</v>
+        <v>1.000000048457916</v>
       </c>
       <c r="D3">
-        <v>0.04017148175341958</v>
+        <v>0.3470958715550957</v>
       </c>
       <c r="E3">
-        <v>0.1186854971563536</v>
+        <v>0.01502092143689934</v>
       </c>
       <c r="F3">
-        <v>0.02653252870320837</v>
+        <v>0.08545342453121797</v>
       </c>
       <c r="G3">
-        <v>0.1373414687905506</v>
+        <v>0.06373449625436887</v>
       </c>
       <c r="H3">
-        <v>0.006409892033646331</v>
+        <v>0.3322890745544337</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.06891555316006451</v>
+        <v>0.2148439540934074</v>
       </c>
       <c r="C4">
-        <v>0.08675559334352552</v>
+        <v>0.2916563452115098</v>
       </c>
       <c r="D4">
-        <v>0.3215320023236893</v>
+        <v>1.000000066444396</v>
       </c>
       <c r="E4">
-        <v>0.006380471615462601</v>
+        <v>0.001805423690394932</v>
       </c>
       <c r="F4">
-        <v>0.01912260863923187</v>
+        <v>0.05327300700296276</v>
       </c>
       <c r="G4">
-        <v>0.04658132485989665</v>
+        <v>0.003474226776265173</v>
       </c>
       <c r="H4">
-        <v>0.007861187909428483</v>
+        <v>0.2709989265665985</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1836117811953041</v>
+        <v>0.2022905720012396</v>
       </c>
       <c r="C5">
-        <v>0.1277042265496641</v>
+        <v>0.2131370922045754</v>
       </c>
       <c r="D5">
-        <v>0.004721019911360242</v>
+        <v>0.05011193381659692</v>
       </c>
       <c r="E5">
-        <v>0.5895695689472922</v>
+        <v>1.000000015608369</v>
       </c>
       <c r="F5">
-        <v>0.03254757644069518</v>
+        <v>0.1528343169100231</v>
       </c>
       <c r="G5">
-        <v>0.1182874885040094</v>
+        <v>0.05771944323879932</v>
       </c>
       <c r="H5">
-        <v>0.004880509546777304</v>
+        <v>0.2571903970801346</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09456646276592556</v>
+        <v>0.2685239829944088</v>
       </c>
       <c r="C6">
-        <v>0.0567344175757855</v>
+        <v>0.3126047920214697</v>
       </c>
       <c r="D6">
-        <v>0.008488383298512564</v>
+        <v>0.2806988880389663</v>
       </c>
       <c r="E6">
-        <v>0.04670267411487646</v>
+        <v>0.06042977903364646</v>
       </c>
       <c r="F6">
-        <v>0.3409331625853552</v>
+        <v>1.00000003346592</v>
       </c>
       <c r="G6">
-        <v>0.02880748295515846</v>
+        <v>0.07327823992018435</v>
       </c>
       <c r="H6">
-        <v>0.001539201582499187</v>
+        <v>0.2917020409382333</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1121744995520692</v>
+        <v>0.6489492747484398</v>
       </c>
       <c r="C7">
-        <v>0.2267991083037001</v>
+        <v>0.4287743141242564</v>
       </c>
       <c r="D7">
-        <v>0.02207898169933141</v>
+        <v>0.03759859766528158</v>
       </c>
       <c r="E7">
-        <v>0.1731912964383407</v>
+        <v>0.02531206708586204</v>
       </c>
       <c r="F7">
-        <v>0.01594037564020027</v>
+        <v>0.1136857361443071</v>
       </c>
       <c r="G7">
-        <v>0.4318422677725285</v>
+        <v>1.000000023438826</v>
       </c>
       <c r="H7">
-        <v>0.001539201582499187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1473485574643377</v>
+        <v>0.1495377564003733</v>
       </c>
       <c r="C8">
-        <v>0.003030307420284815</v>
+        <v>0.2499879318486771</v>
       </c>
       <c r="D8">
-        <v>0.004419192336523826</v>
+        <v>0.2286593011610062</v>
       </c>
       <c r="E8">
-        <v>0.003030303840104539</v>
+        <v>0.01581411242813392</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.04123399651055567</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.1636363687508983</v>
+        <v>1.000000080127589</v>
       </c>
     </row>
   </sheetData>
